--- a/outputs/StudentReport.xlsx
+++ b/outputs/StudentReport.xlsx
@@ -176,7 +176,9 @@
     <t>551040.0</t>
   </si>
   <si>
-    <t/>
+    <t>Summary: 
+total_points: 904.0
+average_points: 90.4</t>
   </si>
 </sst>
 </file>
